--- a/table.xlsx
+++ b/table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>周一上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,42 +75,38 @@
     <t>陆俊健</t>
   </si>
   <si>
+    <t>郭梨花</t>
+  </si>
+  <si>
+    <t>甄家杰</t>
+  </si>
+  <si>
+    <t>吴冰霞</t>
+  </si>
+  <si>
+    <t>罗茂林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚晓纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲</t>
+  </si>
+  <si>
     <t>曹怡欣</t>
-  </si>
-  <si>
-    <t>郭梨花</t>
-  </si>
-  <si>
-    <t>甄家杰</t>
-  </si>
-  <si>
-    <t>吴冰霞</t>
-  </si>
-  <si>
-    <t>罗茂林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚晓纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,23 +298,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -354,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,7 +512,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,38 +561,26 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>1</v>
       </c>
@@ -643,16 +593,16 @@
       <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
@@ -663,16 +613,22 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -698,16 +654,16 @@
       <c r="O4" s="4">
         <v>1</v>
       </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -730,31 +686,25 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -765,29 +715,26 @@
       <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="L7" s="4">
         <v>1</v>
       </c>
@@ -800,16 +747,16 @@
       <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -835,16 +782,16 @@
       <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -852,9 +799,7 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="L9" s="4">
         <v>1</v>
       </c>
@@ -867,10 +812,10 @@
       <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
